--- a/data_automation/마진정보.xlsx
+++ b/data_automation/마진정보.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\데이터 자동화\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\데이터\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468CF544-8AA5-49E5-98DD-719C83BA5F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BF9D66-2D61-445A-9EEA-8E8024C2B8C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{038FFD61-22A8-470D-BD3F-B1F2E0871F65}"/>
+    <workbookView xWindow="2805" yWindow="1215" windowWidth="21600" windowHeight="11385" xr2:uid="{038FFD61-22A8-470D-BD3F-B1F2E0871F65}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="321">
   <si>
     <t>상품번호</t>
   </si>
@@ -450,9 +450,6 @@
     <t>본품: 1개</t>
   </si>
   <si>
-    <t>본품: 1+1</t>
-  </si>
-  <si>
     <t>12010141858</t>
   </si>
   <si>
@@ -595,9 +592,6 @@
   </si>
   <si>
     <t>8431086801</t>
-  </si>
-  <si>
-    <t>헤몬 다찌릿 전기 모기채 전자 파리채 충전식</t>
   </si>
   <si>
     <t>컬러: 다찌릿 화이트</t>
@@ -943,6 +937,94 @@
   <si>
     <t>사이즈: XL(26~40인치)</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>12305603253</t>
+  </si>
+  <si>
+    <t>헤이즈링크 이어핏 오픈형 블루투스 무선이어폰 프리미엄 가죽패턴 충전케이스 LED표시</t>
+  </si>
+  <si>
+    <t>12305911521</t>
+  </si>
+  <si>
+    <t>헤누스 무선 송풍기 터보건 낙엽 미니 에어건 세차 차량용 휴대용</t>
+  </si>
+  <si>
+    <t>12274865855</t>
+  </si>
+  <si>
+    <t>스타일: 25mm본체만(배터리&amp;어댑터 미포함)</t>
+  </si>
+  <si>
+    <t>헤몬 국민 포충기 모기퇴치기 하루살이 초파리 날벌레 해충 가정용 포충등</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>24v 0.5A 어댑터 충전기</t>
+  </si>
+  <si>
+    <t>옵션없음</t>
+  </si>
+  <si>
+    <t>헤몬 쿨링팬 냉각 미니 선풍기 저소음 3단 풍속 휴대용 무선 핸디 선풍기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>색상 선택: 블루+블루</t>
+  </si>
+  <si>
+    <t>추가상품: 21V 3.0Ah 배터리</t>
+  </si>
+  <si>
+    <t>헤몬 터크 프로 전동 드릴 드라이버 충전 공구 세트</t>
+  </si>
+  <si>
+    <t>본품: 1+1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>21V 2.0Ah 배터리</t>
+  </si>
+  <si>
+    <t>추가상품: 21V 2.0Ah 배터리</t>
+  </si>
+  <si>
+    <t>휴멜 쥬시 믹서 텀블러 무선 휴대용 믹서기 미니 블렌더 쉐이커</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤이즈링크 오픈이어 무선이어폰 블루투스 충전식 골전도 스포츠 런닝 운동 핸즈프리</t>
+  </si>
+  <si>
+    <t>헤몬 모기지옥 가정용 모기퇴치기 포충기 해충 날파리 퇴치기 유선감전식+흡입식</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤몬 다찌릿 전기 모기채 전자 파리채 충전식</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가상품: 21V 1.5Ah 배터리</t>
+  </si>
+  <si>
+    <t>12115656038</t>
+  </si>
+  <si>
+    <t>헤몬 1+1 후르츠팟 과일컵 피크닉 휴대용 샐러드컵 다이어트 채식 간편식 도시락 통</t>
+  </si>
+  <si>
+    <t>색상: 그린+퍼플</t>
+  </si>
+  <si>
+    <t>헬릭스케어 올데이 의료용 손목보호대 얇은 아대 헬스 스트랩</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤몬 무선 전동 그라인더 풀세트 연마기 샌딩 절단기 폴리싱 광택기</t>
+  </si>
+  <si>
+    <t>휴비 스피드펑크 레고 호환블록 DIY 자동차 레이싱카 스포츠카</t>
   </si>
 </sst>
 </file>
@@ -1382,10 +1464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B1FC99-B527-4177-AEE8-89A7E1061885}">
-  <dimension ref="A1:I162"/>
+  <dimension ref="A1:I185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="I128" sqref="I128"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="G186" sqref="G186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1408,16 +1490,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1440,7 +1522,7 @@
         <v>8122.9193636363634</v>
       </c>
       <c r="G2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1526,7 +1608,7 @@
         <v>0.45829999999999999</v>
       </c>
       <c r="G7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1543,13 +1625,13 @@
         <v>65800</v>
       </c>
       <c r="E8" s="4">
-        <v>0.42459999999999998</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="F8" s="8">
         <v>15557.420545454544</v>
       </c>
       <c r="G8" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1634,10 +1716,10 @@
         <v>22900</v>
       </c>
       <c r="E13" s="4">
-        <v>0.5302</v>
+        <v>0.59089999999999998</v>
       </c>
       <c r="G13" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1654,9 +1736,6 @@
       <c r="E14" s="4">
         <v>0.56710000000000005</v>
       </c>
-      <c r="G14" t="s">
-        <v>290</v>
-      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
@@ -1678,7 +1757,7 @@
         <v>14729.52509090909</v>
       </c>
       <c r="G15" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1727,10 +1806,10 @@
         <v>20900</v>
       </c>
       <c r="E18" s="4">
-        <v>0.42770000000000002</v>
+        <v>0.49280000000000002</v>
       </c>
       <c r="G18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1747,7 +1826,7 @@
         <v>40400</v>
       </c>
       <c r="E19" s="4">
-        <v>0.48799999999999999</v>
+        <v>0.52829999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1811,13 +1890,13 @@
         <v>27900</v>
       </c>
       <c r="E23" s="4">
-        <v>0.47399999999999998</v>
+        <v>0.52690000000000003</v>
       </c>
       <c r="F23" s="8">
         <v>8619.6566363636375</v>
       </c>
       <c r="G23" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1834,7 +1913,7 @@
         <v>49800</v>
       </c>
       <c r="E24" s="4">
-        <v>0.49559999999999998</v>
+        <v>0.52769999999999995</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1864,19 +1943,16 @@
       <c r="F26" s="8">
         <v>10275.447545454546</v>
       </c>
-      <c r="G26" t="s">
-        <v>290</v>
-      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
         <v>9645007030</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D27" s="6">
         <v>37900</v>
@@ -1888,7 +1964,7 @@
         <v>10275.447545454546</v>
       </c>
       <c r="G27" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1911,7 +1987,7 @@
         <v>10109.868454545454</v>
       </c>
       <c r="G28" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1965,101 +2041,99 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>38</v>
+        <v>296</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>50</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="C32" s="2"/>
       <c r="D32" s="6">
-        <v>4900</v>
+        <v>44500</v>
       </c>
       <c r="E32" s="4">
-        <v>0.52869999999999995</v>
+        <v>0.50949999999999995</v>
+      </c>
+      <c r="F32" s="8">
+        <v>11368.269545454546</v>
+      </c>
+      <c r="G32" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="7">
-        <v>22800</v>
+        <v>49</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="6">
+        <v>4900</v>
       </c>
       <c r="E33" s="4">
-        <v>0.57869999999999999</v>
-      </c>
-      <c r="F33" s="8">
-        <v>7775.2032727272717</v>
-      </c>
-      <c r="G33" t="s">
-        <v>290</v>
+        <v>0.52869999999999995</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D34" s="6">
-        <v>23900</v>
+        <v>72</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="7">
+        <v>22800</v>
       </c>
       <c r="E34" s="4">
-        <v>0.52980000000000005</v>
+        <v>0.57869999999999999</v>
       </c>
       <c r="F34" s="8">
-        <v>7957.3402727272723</v>
+        <v>7775.2032727272717</v>
       </c>
       <c r="G34" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="7">
-        <v>5000</v>
+        <v>74</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="6">
+        <v>23900</v>
       </c>
       <c r="E35" s="4">
-        <v>0.67010000000000003</v>
+        <v>0.52980000000000005</v>
+      </c>
+      <c r="F35" s="8">
+        <v>7957.3402727272723</v>
+      </c>
+      <c r="G35" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D36" s="6">
-        <v>19900</v>
+        <v>76</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="7">
+        <v>5000</v>
       </c>
       <c r="E36" s="4">
-        <v>0.52039999999999997</v>
-      </c>
-      <c r="F36" s="8">
-        <v>7278.4660000000003</v>
-      </c>
-      <c r="G36" t="s">
-        <v>290</v>
+        <v>0.67010000000000003</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -2070,7 +2144,7 @@
         <v>78</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D37" s="6">
         <v>19900</v>
@@ -2080,6 +2154,9 @@
       </c>
       <c r="F37" s="8">
         <v>7278.4660000000003</v>
+      </c>
+      <c r="G37" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -2087,51 +2164,58 @@
         <v>77</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D38" s="6">
-        <v>4900</v>
+        <v>19900</v>
       </c>
       <c r="E38" s="4">
-        <v>0.52449999999999997</v>
+        <v>0.52039999999999997</v>
+      </c>
+      <c r="F38" s="8">
+        <v>7278.4660000000003</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="7">
-        <v>26900</v>
+        <v>86</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" s="6">
+        <v>4900</v>
       </c>
       <c r="E39" s="4">
-        <v>0.48180000000000001</v>
-      </c>
-      <c r="F39" s="8">
-        <v>8454.0775454545455</v>
-      </c>
-      <c r="G39" t="s">
-        <v>290</v>
+        <v>0.52449999999999997</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="4"/>
+        <v>82</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="7">
+        <v>26900</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0.48180000000000001</v>
+      </c>
+      <c r="F40" s="8">
+        <v>8454.0775454545455</v>
+      </c>
+      <c r="G40" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
@@ -2141,138 +2225,131 @@
         <v>84</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="7">
-        <v>26900</v>
-      </c>
-      <c r="E42" s="4">
-        <v>0.66900000000000004</v>
-      </c>
-      <c r="F42" s="8">
-        <v>8454.0775454545455</v>
-      </c>
-      <c r="G42" t="s">
-        <v>290</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" s="6"/>
+      <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="7">
-        <v>29800</v>
+        <v>26900</v>
       </c>
       <c r="E43" s="4">
-        <v>0.58760000000000001</v>
+        <v>0.66900000000000004</v>
       </c>
       <c r="F43" s="8">
-        <v>8934.2569090909092</v>
+        <v>8454.0775454545455</v>
       </c>
       <c r="G43" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="7">
-        <v>16800</v>
+        <v>29800</v>
       </c>
       <c r="E44" s="4">
-        <v>0.55710000000000004</v>
+        <v>0.58760000000000001</v>
       </c>
       <c r="F44" s="8">
-        <v>6781.7287272727272</v>
+        <v>8934.2569090909092</v>
       </c>
       <c r="G44" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" s="6">
-        <v>17800</v>
+        <v>90</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="7">
+        <v>16800</v>
       </c>
       <c r="E45" s="4">
-        <v>0.64829999999999999</v>
+        <v>0.55710000000000004</v>
       </c>
       <c r="F45" s="8">
-        <v>6947.3078181818173</v>
+        <v>6781.7287272727272</v>
       </c>
       <c r="G45" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>98</v>
+        <v>318</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="D46" s="6">
         <v>17800</v>
       </c>
       <c r="E46" s="4">
-        <v>0.61429999999999996</v>
+        <v>0.64829999999999999</v>
       </c>
       <c r="F46" s="8">
         <v>6947.3078181818173</v>
       </c>
       <c r="G46" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="D47" s="6">
         <v>17800</v>
       </c>
       <c r="E47" s="4">
-        <v>0.61429999999999996</v>
+        <v>0.64829999999999999</v>
       </c>
       <c r="F47" s="8">
         <v>6947.3078181818173</v>
+      </c>
+      <c r="G47" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -2283,7 +2360,7 @@
         <v>98</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D48" s="6">
         <v>17800</v>
@@ -2293,6 +2370,9 @@
       </c>
       <c r="F48" s="8">
         <v>6947.3078181818173</v>
+      </c>
+      <c r="G48" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -2303,7 +2383,7 @@
         <v>98</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D49" s="6">
         <v>17800</v>
@@ -2317,45 +2397,42 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D50" s="6">
-        <v>24900</v>
+        <v>17800</v>
       </c>
       <c r="E50" s="4">
-        <v>0.49769999999999998</v>
+        <v>0.61429999999999996</v>
       </c>
       <c r="F50" s="8">
-        <v>8122.9193636363634</v>
-      </c>
-      <c r="G50" t="s">
-        <v>290</v>
+        <v>6947.3078181818173</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D51" s="6">
-        <v>24900</v>
+        <v>17800</v>
       </c>
       <c r="E51" s="4">
-        <v>0.49769999999999998</v>
+        <v>0.61429999999999996</v>
       </c>
       <c r="F51" s="8">
-        <v>8122.9193636363634</v>
+        <v>6947.3078181818173</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -2366,7 +2443,7 @@
         <v>104</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D52" s="6">
         <v>24900</v>
@@ -2376,6 +2453,9 @@
       </c>
       <c r="F52" s="8">
         <v>8122.9193636363634</v>
+      </c>
+      <c r="G52" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -2386,7 +2466,7 @@
         <v>104</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D53" s="6">
         <v>24900</v>
@@ -2400,45 +2480,42 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D54" s="6">
-        <v>19900</v>
+        <v>24900</v>
       </c>
       <c r="E54" s="4">
-        <v>0.41760000000000003</v>
+        <v>0.49769999999999998</v>
       </c>
       <c r="F54" s="8">
-        <v>7295.023909090909</v>
-      </c>
-      <c r="G54" t="s">
-        <v>290</v>
+        <v>8122.9193636363634</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D55" s="6">
-        <v>19900</v>
+        <v>24900</v>
       </c>
       <c r="E55" s="4">
-        <v>0.41760000000000003</v>
+        <v>0.49769999999999998</v>
       </c>
       <c r="F55" s="8">
-        <v>7295.023909090909</v>
+        <v>8122.9193636363634</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -2449,7 +2526,7 @@
         <v>110</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D56" s="6">
         <v>19900</v>
@@ -2459,6 +2536,9 @@
       </c>
       <c r="F56" s="8">
         <v>7295.023909090909</v>
+      </c>
+      <c r="G56" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -2469,7 +2549,7 @@
         <v>110</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D57" s="6">
         <v>19900</v>
@@ -2482,46 +2562,43 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
-        <v>12299067640</v>
+      <c r="A58" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>291</v>
+        <v>110</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>293</v>
+        <v>113</v>
       </c>
       <c r="D58" s="6">
-        <v>26900</v>
+        <v>19900</v>
       </c>
       <c r="E58" s="4">
-        <v>0.51670000000000005</v>
+        <v>0.41760000000000003</v>
       </c>
       <c r="F58" s="8">
-        <v>8454.0775454545455</v>
+        <v>7295.023909090909</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
-        <v>12299067640</v>
+      <c r="A59" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>291</v>
+        <v>110</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>292</v>
+        <v>114</v>
       </c>
       <c r="D59" s="6">
-        <v>26900</v>
+        <v>19900</v>
       </c>
       <c r="E59" s="4">
-        <v>0.51670000000000005</v>
+        <v>0.41760000000000003</v>
       </c>
       <c r="F59" s="8">
-        <v>8454.0775454545455</v>
-      </c>
-      <c r="G59" t="s">
-        <v>290</v>
+        <v>7295.023909090909</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -2529,10 +2606,10 @@
         <v>12299067640</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>294</v>
       </c>
       <c r="D60" s="6">
         <v>26900</v>
@@ -2549,10 +2626,10 @@
         <v>12299067640</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D61" s="6">
         <v>26900</v>
@@ -2563,65 +2640,65 @@
       <c r="F61" s="8">
         <v>8454.0775454545455</v>
       </c>
+      <c r="G61" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
-        <v>115</v>
+      <c r="A62" s="2">
+        <v>12299067640</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>116</v>
+        <v>289</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>117</v>
+        <v>292</v>
       </c>
       <c r="D62" s="6">
-        <v>17900</v>
+        <v>26900</v>
       </c>
       <c r="E62" s="4">
-        <v>0.53029999999999999</v>
+        <v>0.51670000000000005</v>
+      </c>
+      <c r="F62" s="8">
+        <v>8454.0775454545455</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
-        <v>118</v>
+      <c r="A63" s="2">
+        <v>12299067640</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>119</v>
+        <v>289</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>120</v>
+        <v>293</v>
       </c>
       <c r="D63" s="6">
-        <v>19900</v>
+        <v>26900</v>
       </c>
       <c r="E63" s="4">
-        <v>0.46210000000000001</v>
+        <v>0.51670000000000005</v>
       </c>
       <c r="F63" s="8">
-        <v>7295.023909090909</v>
-      </c>
-      <c r="G63" t="s">
-        <v>290</v>
+        <v>8454.0775454545455</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D64" s="6">
-        <v>19900</v>
+        <v>17900</v>
       </c>
       <c r="E64" s="4">
-        <v>0.46210000000000001</v>
-      </c>
-      <c r="F64" s="8">
-        <v>7295.023909090909</v>
+        <v>0.53029999999999999</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -2632,7 +2709,7 @@
         <v>119</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D65" s="6">
         <v>19900</v>
@@ -2642,6 +2719,9 @@
       </c>
       <c r="F65" s="8">
         <v>7295.023909090909</v>
+      </c>
+      <c r="G65" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -2652,13 +2732,16 @@
         <v>119</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D66" s="9">
-        <v>38300</v>
+        <v>121</v>
+      </c>
+      <c r="D66" s="6">
+        <v>19900</v>
       </c>
       <c r="E66" s="4">
-        <v>0.51749999999999996</v>
+        <v>0.46210000000000001</v>
+      </c>
+      <c r="F66" s="8">
+        <v>7295.023909090909</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -2669,13 +2752,16 @@
         <v>119</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D67" s="9">
-        <v>38300</v>
+        <v>122</v>
+      </c>
+      <c r="D67" s="6">
+        <v>19900</v>
       </c>
       <c r="E67" s="4">
-        <v>0.51749999999999996</v>
+        <v>0.46210000000000001</v>
+      </c>
+      <c r="F67" s="8">
+        <v>7295.023909090909</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -2686,7 +2772,7 @@
         <v>119</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D68" s="9">
         <v>38300</v>
@@ -2697,36 +2783,36 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D69" s="6">
-        <v>8900</v>
+        <v>124</v>
+      </c>
+      <c r="D69" s="9">
+        <v>38300</v>
       </c>
       <c r="E69" s="4">
-        <v>0.62229999999999996</v>
+        <v>0.51749999999999996</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D70" s="6">
-        <v>3000</v>
+        <v>125</v>
+      </c>
+      <c r="D70" s="9">
+        <v>38300</v>
       </c>
       <c r="E70" s="4">
-        <v>0.39900000000000002</v>
+        <v>0.51749999999999996</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
@@ -2737,13 +2823,13 @@
         <v>127</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D71" s="6">
-        <v>3000</v>
+        <v>8900</v>
       </c>
       <c r="E71" s="4">
-        <v>0.39900000000000002</v>
+        <v>0.62229999999999996</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -2754,7 +2840,7 @@
         <v>127</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D72" s="6">
         <v>3000</v>
@@ -2765,105 +2851,99 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>287</v>
+        <v>126</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C73" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="D73" s="6">
-        <v>22900</v>
+        <v>3000</v>
       </c>
       <c r="E73" s="4">
-        <v>0.59019999999999995</v>
-      </c>
-      <c r="F73" s="8">
-        <v>7791.7611818181822</v>
-      </c>
-      <c r="G73" t="s">
-        <v>290</v>
+        <v>0.39900000000000002</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="2">
+      <c r="A74" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D74" s="6">
+        <v>3000</v>
+      </c>
+      <c r="E74" s="4">
+        <v>0.39900000000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
         <v>12078725774</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D74" s="6">
-        <v>4900</v>
-      </c>
-      <c r="E74" s="4">
-        <v>0.54220000000000002</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="B75" s="2" t="s">
-        <v>133</v>
+        <v>281</v>
       </c>
       <c r="C75" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D75" s="6">
+        <v>33800</v>
+      </c>
+      <c r="E75" s="4">
+        <v>0.54590000000000005</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="2">
+        <v>12078725774</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D75" s="6">
-        <v>19900</v>
-      </c>
-      <c r="E75" s="4">
-        <v>0.47639999999999999</v>
-      </c>
-      <c r="F75" s="8">
-        <v>7295.0239090909099</v>
-      </c>
-      <c r="G75" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="D76" s="6">
-        <v>38800</v>
+        <v>18900</v>
       </c>
       <c r="E76" s="4">
-        <v>0.52800000000000002</v>
+        <v>0.5353</v>
+      </c>
+      <c r="G76" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>136</v>
+        <v>285</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>138</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="C77" s="2"/>
       <c r="D77" s="6">
-        <v>19900</v>
+        <v>22900</v>
       </c>
       <c r="E77" s="4">
-        <v>0.47639999999999999</v>
+        <v>0.59019999999999995</v>
+      </c>
+      <c r="F77" s="8">
+        <v>7791.7611818181822</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
-        <v>12010141858</v>
+        <v>12078725774</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>86</v>
+        <v>281</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>87</v>
@@ -2877,1511 +2957,1953 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D79" s="6">
-        <v>23900</v>
+        <v>19900</v>
       </c>
       <c r="E79" s="4">
-        <v>0.4672</v>
+        <v>0.47639999999999999</v>
       </c>
       <c r="F79" s="8">
-        <v>7957.3402727272723</v>
+        <v>7295.0239090909099</v>
       </c>
       <c r="G79" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>142</v>
+        <v>307</v>
       </c>
       <c r="D80" s="6">
-        <v>23900</v>
+        <v>38800</v>
       </c>
       <c r="E80" s="4">
-        <v>0.4672</v>
-      </c>
-      <c r="F80" s="8">
-        <v>7957.3402727272723</v>
+        <v>0.52800000000000002</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D81" s="6">
+        <v>19900</v>
+      </c>
+      <c r="E81" s="4">
+        <v>0.47639999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="2">
+        <v>12010141858</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D82" s="6">
+        <v>4900</v>
+      </c>
+      <c r="E82" s="4">
+        <v>0.54220000000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
+        <v>10040628994</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D83" s="6">
+        <v>4900</v>
+      </c>
+      <c r="E83" s="4">
+        <v>0.54220000000000002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D81" s="6">
-        <v>33900</v>
-      </c>
-      <c r="E81" s="4">
-        <v>0.54249999999999998</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D82" s="6">
-        <v>33900</v>
-      </c>
-      <c r="E82" s="4">
-        <v>0.54249999999999998</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D83" s="6">
-        <v>29800</v>
-      </c>
-      <c r="E83" s="4">
-        <v>0.46550000000000002</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="2">
-        <v>10040605376</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="D84" s="6">
-        <v>4900</v>
+        <v>23900</v>
       </c>
       <c r="E84" s="4">
-        <v>0.54220000000000002</v>
+        <v>0.4672</v>
+      </c>
+      <c r="F84" s="8">
+        <v>7957.3402727272723</v>
+      </c>
+      <c r="G84" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C85" s="3"/>
-      <c r="D85" s="7">
-        <v>5000</v>
-      </c>
-      <c r="E85" s="10">
-        <v>0.67010000000000003</v>
+        <v>139</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D85" s="6">
+        <v>23900</v>
+      </c>
+      <c r="E85" s="4">
+        <v>0.4672</v>
+      </c>
+      <c r="F85" s="8">
+        <v>7957.3402727272723</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C86" s="3"/>
-      <c r="D86" s="7">
-        <v>29800</v>
+        <v>139</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D86" s="6">
+        <v>33900</v>
       </c>
       <c r="E86" s="4">
-        <v>0.504</v>
-      </c>
-      <c r="F86" s="8">
-        <v>8934.2569090909092</v>
-      </c>
-      <c r="G86" t="s">
-        <v>290</v>
+        <v>0.54249999999999998</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="D87" s="6">
-        <v>12900</v>
+        <v>33900</v>
       </c>
       <c r="E87" s="4">
-        <v>0.36990000000000001</v>
-      </c>
-      <c r="F87" s="8">
-        <v>6135.9702727272734</v>
-      </c>
-      <c r="G87" t="s">
-        <v>290</v>
+        <v>0.54249999999999998</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D88" s="6">
-        <v>12900</v>
+        <v>29800</v>
       </c>
       <c r="E88" s="4">
-        <v>0.36990000000000001</v>
-      </c>
-      <c r="F88" s="8">
-        <v>6135.9702727272734</v>
+        <v>0.46550000000000002</v>
+      </c>
+      <c r="G88" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A89" s="2" t="s">
-        <v>152</v>
+      <c r="A89" s="2">
+        <v>10040605376</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>286</v>
+        <v>86</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>156</v>
+        <v>87</v>
       </c>
       <c r="D89" s="6">
-        <v>12900</v>
+        <v>4900</v>
       </c>
       <c r="E89" s="4">
-        <v>0.36990000000000001</v>
-      </c>
-      <c r="F89" s="8">
-        <v>6135.9702727272734</v>
+        <v>0.54220000000000002</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D90" s="6">
-        <v>12900</v>
-      </c>
-      <c r="E90" s="4">
-        <v>0.36990000000000001</v>
-      </c>
-      <c r="F90" s="8">
-        <v>6135.9702727272734</v>
+        <v>148</v>
+      </c>
+      <c r="C90" s="3"/>
+      <c r="D90" s="7">
+        <v>5000</v>
+      </c>
+      <c r="E90" s="10">
+        <v>0.67010000000000003</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C91" s="3"/>
+      <c r="D91" s="7">
+        <v>29800</v>
+      </c>
+      <c r="E91" s="4">
+        <v>0.504</v>
+      </c>
+      <c r="F91" s="8">
+        <v>8934.2569090909092</v>
+      </c>
+      <c r="G91" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="2">
+        <v>8855866055</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D91" s="6">
-        <v>12900</v>
-      </c>
-      <c r="E91" s="4">
-        <v>0.36990000000000001</v>
-      </c>
-      <c r="F91" s="8">
-        <v>6135.9702727272734</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A92" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>161</v>
+      <c r="C92" s="3" t="s">
+        <v>304</v>
       </c>
       <c r="D92" s="6">
-        <v>8900</v>
+        <v>7900</v>
       </c>
       <c r="E92" s="4">
-        <v>0.3044</v>
-      </c>
-      <c r="F92" s="8">
-        <v>5473.6539090909091</v>
+        <v>0.22539999999999999</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C93" s="3"/>
-      <c r="D93" s="7">
-        <v>16900</v>
+        <v>152</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D93" s="6">
+        <v>7900</v>
       </c>
       <c r="E93" s="4">
-        <v>0.37030000000000002</v>
+        <v>0.22539999999999999</v>
       </c>
       <c r="F93" s="8">
-        <v>6798.2866363636367</v>
+        <v>6135.9702727272734</v>
+      </c>
+      <c r="G93" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="D94" s="6">
-        <v>19900</v>
+        <v>7900</v>
       </c>
       <c r="E94" s="4">
-        <v>0.51200000000000001</v>
+        <v>0.22539999999999999</v>
       </c>
       <c r="F94" s="8">
-        <v>7295.023909090909</v>
-      </c>
-      <c r="G94" t="s">
-        <v>290</v>
+        <v>6135.9702727272734</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>163</v>
+        <v>284</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D95" s="6">
-        <v>36700</v>
+        <v>7900</v>
       </c>
       <c r="E95" s="4">
-        <v>0.53939999999999999</v>
+        <v>0.22539999999999999</v>
+      </c>
+      <c r="F95" s="8">
+        <v>6135.9702727272734</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="D96" s="6">
-        <v>19900</v>
+        <v>7900</v>
       </c>
       <c r="E96" s="4">
-        <v>0.40770000000000001</v>
+        <v>0.22539999999999999</v>
+      </c>
+      <c r="F96" s="8">
+        <v>6135.9702727272734</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>6</v>
+        <v>157</v>
       </c>
       <c r="D97" s="6">
-        <v>37700</v>
+        <v>7900</v>
       </c>
       <c r="E97" s="4">
-        <v>0.4219</v>
+        <v>0.22539999999999999</v>
+      </c>
+      <c r="F97" s="8">
+        <v>6135.9702727272734</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="D98" s="6">
-        <v>14900</v>
+        <v>8900</v>
       </c>
       <c r="E98" s="4">
-        <v>0.52910000000000001</v>
+        <v>0.3044</v>
       </c>
       <c r="F98" s="8">
-        <v>6467.1284545454546</v>
-      </c>
-      <c r="G98" t="s">
-        <v>290</v>
+        <v>5473.6539090909091</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D99" s="6">
-        <v>14900</v>
+        <v>168</v>
+      </c>
+      <c r="C99" s="3"/>
+      <c r="D99" s="7">
+        <v>16900</v>
       </c>
       <c r="E99" s="4">
-        <v>0.52910000000000001</v>
+        <v>0.37030000000000002</v>
       </c>
       <c r="F99" s="8">
-        <v>6467.1284545454546</v>
+        <v>6798.2866363636367</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="D100" s="6">
-        <v>27700</v>
+        <v>19900</v>
       </c>
       <c r="E100" s="4">
-        <v>0.58330000000000004</v>
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="F100" s="8">
+        <v>7295.023909090909</v>
+      </c>
+      <c r="G100" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="D101" s="6">
-        <v>27700</v>
+        <v>36700</v>
       </c>
       <c r="E101" s="4">
-        <v>0.58330000000000004</v>
+        <v>0.53939999999999999</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D102" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="D102" s="6">
+        <v>19900</v>
+      </c>
+      <c r="E102" s="4">
+        <v>0.40770000000000001</v>
+      </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C103" s="3"/>
-      <c r="D103" s="7">
-        <v>4900</v>
+        <v>303</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103" s="6">
+        <v>37700</v>
       </c>
       <c r="E103" s="4">
-        <v>0.54220000000000002</v>
+        <v>0.4219</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>86</v>
+        <v>173</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D104" s="7">
-        <v>4900</v>
+        <v>174</v>
+      </c>
+      <c r="D104" s="6">
+        <v>14900</v>
       </c>
       <c r="E104" s="4">
-        <v>0.54220000000000002</v>
+        <v>0.52910000000000001</v>
+      </c>
+      <c r="F104" s="8">
+        <v>6467.1284545454546</v>
+      </c>
+      <c r="G104" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D105" s="7">
-        <v>4900</v>
+        <v>176</v>
+      </c>
+      <c r="D105" s="6">
+        <v>14900</v>
       </c>
       <c r="E105" s="4">
-        <v>0.54220000000000002</v>
+        <v>0.52910000000000001</v>
+      </c>
+      <c r="F105" s="8">
+        <v>6467.1284545454546</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>117</v>
+        <v>175</v>
       </c>
       <c r="D106" s="6">
-        <v>39000</v>
+        <v>27700</v>
       </c>
       <c r="E106" s="4">
-        <v>0.51290000000000002</v>
+        <v>0.58330000000000004</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>184</v>
+        <v>300</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D107" s="6"/>
+        <v>177</v>
+      </c>
+      <c r="D107" s="6">
+        <v>27700</v>
+      </c>
+      <c r="E107" s="4">
+        <v>0.58330000000000004</v>
+      </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D108" s="6">
-        <v>21900</v>
-      </c>
-      <c r="E108" s="4">
-        <v>0.50029999999999997</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="D108" s="6"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A109" s="2" t="s">
-        <v>186</v>
+      <c r="A109" s="2">
+        <v>10040628994</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>187</v>
+        <v>86</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D109" s="6">
-        <v>40800</v>
+        <v>87</v>
+      </c>
+      <c r="D109" s="7">
+        <v>4900</v>
       </c>
       <c r="E109" s="4">
-        <v>0.51770000000000005</v>
+        <v>0.54220000000000002</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D110" s="6">
-        <v>40800</v>
+        <v>179</v>
+      </c>
+      <c r="C110" s="3"/>
+      <c r="D110" s="7">
+        <v>4900</v>
       </c>
       <c r="E110" s="4">
-        <v>0.51770000000000005</v>
+        <v>0.47660000000000002</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>190</v>
+        <v>132</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C111" s="3"/>
-      <c r="D111" s="7"/>
+        <v>86</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D111" s="7">
+        <v>4900</v>
+      </c>
+      <c r="E111" s="4">
+        <v>0.54220000000000002</v>
+      </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D112" s="7">
+        <v>4900</v>
+      </c>
+      <c r="E112" s="4">
+        <v>0.54220000000000002</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D113" s="6">
+        <v>39000</v>
+      </c>
+      <c r="E113" s="4">
+        <v>0.51290000000000002</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D114" s="6"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D115" s="6">
+        <v>21900</v>
+      </c>
+      <c r="E115" s="4">
+        <v>0.50029999999999997</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D116" s="6">
+        <v>40800</v>
+      </c>
+      <c r="E116" s="4">
+        <v>0.51770000000000005</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D117" s="6">
+        <v>40800</v>
+      </c>
+      <c r="E117" s="4">
+        <v>0.51770000000000005</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C118" s="3"/>
+      <c r="D118" s="7"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D119" s="6">
+        <v>29800</v>
+      </c>
+      <c r="E119" s="4">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C120" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C112" s="2" t="s">
+      <c r="D120" s="6">
+        <v>29800</v>
+      </c>
+      <c r="E120" s="4">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D121" s="6">
+        <v>29800</v>
+      </c>
+      <c r="E121" s="4">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D112" s="6">
-        <v>29800</v>
-      </c>
-      <c r="E112" s="4">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A113" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D113" s="6">
-        <v>29800</v>
-      </c>
-      <c r="E113" s="4">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A114" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C114" s="2" t="s">
+      <c r="B122" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D114" s="6">
-        <v>29800</v>
-      </c>
-      <c r="E114" s="4">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A115" s="2" t="s">
+      <c r="C122" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D122" s="6">
+        <v>8900</v>
+      </c>
+      <c r="E122" s="4">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="G122" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D123" s="6">
+        <v>16800</v>
+      </c>
+      <c r="E123" s="4">
+        <v>0.49049999999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B124" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D115" s="6">
-        <v>8900</v>
-      </c>
-      <c r="E115" s="4">
-        <v>0.42099999999999999</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A116" s="2" t="s">
+      <c r="C124" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D124" s="6">
+        <v>25900</v>
+      </c>
+      <c r="E124" s="4">
+        <v>0.53390000000000004</v>
+      </c>
+      <c r="F124" s="8">
+        <v>8288.4984545454536</v>
+      </c>
+      <c r="G124" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B125" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D116" s="6">
+      <c r="C125" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D125" s="6">
+        <v>25900</v>
+      </c>
+      <c r="E125" s="4">
+        <v>0.53390000000000004</v>
+      </c>
+      <c r="F125" s="8">
+        <v>8288.4984545454536</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D126" s="6">
+        <v>4500</v>
+      </c>
+      <c r="E126" s="4">
+        <v>0.50780000000000003</v>
+      </c>
+      <c r="G126" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D127" s="6">
         <v>16800</v>
       </c>
-      <c r="E116" s="4">
-        <v>0.49049999999999999</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A117" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D117" s="6">
-        <v>25900</v>
-      </c>
-      <c r="E117" s="4">
-        <v>0.53390000000000004</v>
-      </c>
-      <c r="F117" s="8">
-        <v>8288.4984545454536</v>
-      </c>
-      <c r="G117" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A118" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D118" s="6">
-        <v>25900</v>
-      </c>
-      <c r="E118" s="4">
-        <v>0.53390000000000004</v>
-      </c>
-      <c r="F118" s="8">
-        <v>8288.4984545454536</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A119" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D119" s="6"/>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A120" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C120" s="2" t="s">
+      <c r="E127" s="4">
+        <v>0.67830000000000001</v>
+      </c>
+      <c r="F127" s="8">
+        <v>6781.7287272727272</v>
+      </c>
+      <c r="G127" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D120" s="6">
-        <v>99000</v>
-      </c>
-      <c r="E120" s="4">
-        <v>0.57279999999999998</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A121" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D121" s="6">
-        <v>49000</v>
-      </c>
-      <c r="E121" s="4">
-        <v>0.5635</v>
-      </c>
-      <c r="F121" s="8">
-        <v>12113.375454545454</v>
-      </c>
-      <c r="G121" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A122" s="2" t="s">
+      <c r="C128" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D122" s="6">
-        <v>149000</v>
-      </c>
-      <c r="E122" s="4">
-        <v>0.54379999999999995</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A123" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D123" s="6">
-        <v>79000</v>
-      </c>
-      <c r="E123" s="4">
-        <v>0.44009999999999999</v>
-      </c>
-      <c r="F123" s="8">
-        <v>17080.748181818184</v>
-      </c>
-      <c r="G123" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A124" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D124" s="6">
-        <v>86800</v>
-      </c>
-      <c r="E124" s="4">
-        <v>0.38400000000000001</v>
-      </c>
-      <c r="F124" s="8">
-        <v>18372.265090909088</v>
-      </c>
-      <c r="G124" t="s">
-        <v>290</v>
-      </c>
-      <c r="I124" s="4"/>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A125" s="2">
-        <v>9455030267</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D125" s="6">
-        <v>79800</v>
-      </c>
-      <c r="E125" s="4">
-        <v>0.46560000000000001</v>
-      </c>
-      <c r="F125" s="8">
-        <v>17213.211454545453</v>
-      </c>
-      <c r="G125" t="s">
-        <v>290</v>
-      </c>
-      <c r="I125" s="4"/>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A126" s="2">
-        <v>11979306367</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D126" s="6">
-        <v>58900</v>
-      </c>
-      <c r="E126" s="4">
-        <v>0.43509999999999999</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A127" s="2">
-        <v>9512367530</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D127" s="6">
-        <v>79000</v>
-      </c>
-      <c r="E127" s="4">
-        <v>0.51100000000000001</v>
-      </c>
-      <c r="F127" s="8">
-        <v>17080.748181818184</v>
-      </c>
-      <c r="G127" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A128" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="D128" s="6">
         <v>99000</v>
       </c>
       <c r="E128" s="4">
+        <v>0.57279999999999998</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D129" s="6">
+        <v>49000</v>
+      </c>
+      <c r="E129" s="4">
+        <v>0.5635</v>
+      </c>
+      <c r="F129" s="8">
+        <v>12113.375454545454</v>
+      </c>
+      <c r="G129" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D130" s="6">
+        <v>149000</v>
+      </c>
+      <c r="E130" s="4">
+        <v>0.52339999999999998</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A131" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D131" s="6">
+        <v>79000</v>
+      </c>
+      <c r="E131" s="4">
+        <v>0.44009999999999999</v>
+      </c>
+      <c r="F131" s="8">
+        <v>17080.748181818184</v>
+      </c>
+      <c r="G131" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D132" s="6">
+        <v>86800</v>
+      </c>
+      <c r="E132" s="4">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="F132" s="8">
+        <v>18372.265090909088</v>
+      </c>
+      <c r="G132" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A133" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D133" s="6">
+        <v>86800</v>
+      </c>
+      <c r="E133" s="4">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="F133" s="8">
+        <v>18372.265090909088</v>
+      </c>
+      <c r="G133" t="s">
+        <v>288</v>
+      </c>
+      <c r="I133" s="4"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A134" s="2">
+        <v>9455030267</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D134" s="6">
+        <v>79800</v>
+      </c>
+      <c r="E134" s="4">
+        <v>0.46560000000000001</v>
+      </c>
+      <c r="F134" s="8">
+        <v>17213.211454545453</v>
+      </c>
+      <c r="G134" t="s">
+        <v>288</v>
+      </c>
+      <c r="I134" s="4"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A135" s="2">
+        <v>11979306367</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D135" s="6">
+        <v>58900</v>
+      </c>
+      <c r="E135" s="4">
+        <v>0.43509999999999999</v>
+      </c>
+      <c r="G135" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A136" s="2">
+        <v>9512367530</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D136" s="6">
+        <v>45100</v>
+      </c>
+      <c r="E136" s="4">
+        <v>0.41449999999999998</v>
+      </c>
+      <c r="G136" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A137" s="2">
+        <v>9512367530</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D137" s="6">
+        <v>79000</v>
+      </c>
+      <c r="E137" s="4">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="F137" s="8">
+        <v>17080.748181818184</v>
+      </c>
+      <c r="G137" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A138" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D138" s="6">
+        <v>99000</v>
+      </c>
+      <c r="E138" s="4">
         <v>0.42059999999999997</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A129" s="2" t="s">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A139" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C139" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="D139" s="6">
+        <v>52800</v>
+      </c>
+      <c r="E139" s="4">
+        <v>0.39190000000000003</v>
+      </c>
+      <c r="F139" s="8">
+        <v>12742.575999999997</v>
+      </c>
+      <c r="G139" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A140" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="B140" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D129" s="6">
-        <v>52800</v>
-      </c>
-      <c r="E129" s="4">
-        <v>0.39190000000000003</v>
-      </c>
-      <c r="F129" s="8">
-        <v>12742.575999999997</v>
-      </c>
-      <c r="G129" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A130" s="2" t="s">
+      <c r="C140" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="D140" s="6">
+        <v>89000</v>
+      </c>
+      <c r="E140" s="4">
+        <v>0.45650000000000002</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A141" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="B141" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D130" s="6">
+      <c r="C141" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D141" s="6">
+        <v>49800</v>
+      </c>
+      <c r="E141" s="4">
+        <v>0.49070000000000003</v>
+      </c>
+      <c r="F141" s="8">
+        <v>12245.838727272727</v>
+      </c>
+      <c r="G141" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A142" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D142" s="6">
+        <v>49800</v>
+      </c>
+      <c r="E142" s="4">
+        <v>0.49070000000000003</v>
+      </c>
+      <c r="F142" s="8">
+        <v>12245.838727272727</v>
+      </c>
+      <c r="G142" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A143" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D143" s="6">
         <v>89000</v>
       </c>
-      <c r="E130" s="4">
-        <v>0.45650000000000002</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A131" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D131" s="6">
-        <v>49800</v>
-      </c>
-      <c r="E131" s="4">
-        <v>0.49070000000000003</v>
-      </c>
-      <c r="F131" s="8">
-        <v>12245.838727272727</v>
-      </c>
-      <c r="G131" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A132" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D132" s="6">
-        <v>49800</v>
-      </c>
-      <c r="E132" s="4">
-        <v>0.49070000000000003</v>
-      </c>
-      <c r="F132" s="8">
-        <v>12245.838727272727</v>
-      </c>
-      <c r="G132" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A133" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D133" s="6">
-        <v>89000</v>
-      </c>
-      <c r="E133" s="4">
+      <c r="E143" s="4">
         <v>0.49419999999999997</v>
       </c>
-      <c r="F133" s="8">
+      <c r="F143" s="8">
         <v>18736.539090909093</v>
       </c>
-      <c r="G133" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A134" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C134" s="3"/>
-      <c r="D134" s="7">
-        <v>29000</v>
-      </c>
-      <c r="E134" s="4">
-        <v>0.66159999999999997</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A135" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C135" s="3"/>
-      <c r="D135" s="7">
-        <v>39000</v>
-      </c>
-      <c r="E135" s="4">
-        <v>0.67400000000000004</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A136" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C136" s="3"/>
-      <c r="D136" s="7">
-        <v>56900</v>
-      </c>
-      <c r="E136" s="4">
-        <v>0.66969999999999996</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A137" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="D137" s="6">
-        <v>29000</v>
-      </c>
-      <c r="E137" s="4">
-        <v>0.70389999999999997</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A138" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D138" s="6">
-        <v>39000</v>
-      </c>
-      <c r="E138" s="4">
-        <v>0.70199999999999996</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A139" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="D139" s="6">
-        <v>56900</v>
-      </c>
-      <c r="E139" s="4">
-        <v>0.68469999999999998</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A140" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="D140" s="6">
-        <v>29000</v>
-      </c>
-      <c r="E140" s="4">
-        <v>0.70389999999999997</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A141" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D141" s="6">
-        <v>56900</v>
-      </c>
-      <c r="E141" s="4">
-        <v>0.68469999999999998</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A142" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D142" s="6">
-        <v>14900</v>
-      </c>
-      <c r="E142" s="4">
-        <v>0.59489999999999998</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A143" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D143" s="6">
-        <v>29000</v>
-      </c>
-      <c r="E143" s="10">
-        <v>0.70389999999999997</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A144" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D144" s="6">
-        <v>56900</v>
-      </c>
-      <c r="E144" s="10">
-        <v>0.68469999999999998</v>
-      </c>
+      <c r="G143" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A144" s="2"/>
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="6"/>
+      <c r="E144" s="4"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A145" s="2" t="s">
-        <v>211</v>
+      <c r="A145" s="2">
+        <v>11191566998</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>242</v>
+        <v>306</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>252</v>
+        <v>302</v>
       </c>
       <c r="D145" s="6">
-        <v>29000</v>
-      </c>
-      <c r="E145" s="10">
-        <v>0.70389999999999997</v>
+        <v>84900</v>
+      </c>
+      <c r="E145" s="4">
+        <v>0.53369999999999995</v>
+      </c>
+      <c r="G145" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="D146" s="6">
+        <v>235</v>
+      </c>
+      <c r="C146" s="3"/>
+      <c r="D146" s="7">
         <v>29000</v>
       </c>
-      <c r="E146" s="10">
-        <v>0.70389999999999997</v>
+      <c r="E146" s="4">
+        <v>0.66159999999999997</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="D147" s="6">
-        <v>14900</v>
+        <v>239</v>
+      </c>
+      <c r="C147" s="3"/>
+      <c r="D147" s="7">
+        <v>39000</v>
       </c>
       <c r="E147" s="4">
-        <v>0.59489999999999998</v>
+        <v>0.67400000000000004</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D148" s="6">
-        <v>14900</v>
+        <v>237</v>
+      </c>
+      <c r="C148" s="3"/>
+      <c r="D148" s="7">
+        <v>56900</v>
       </c>
       <c r="E148" s="4">
-        <v>0.59489999999999998</v>
+        <v>0.66969999999999996</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A149" s="2" t="s">
-        <v>254</v>
+      <c r="A149" s="2">
+        <v>9122381432</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>256</v>
+        <v>55</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>314</v>
       </c>
       <c r="D149" s="6">
-        <v>84800</v>
+        <v>29000</v>
       </c>
       <c r="E149" s="4">
-        <v>0.57169999999999999</v>
-      </c>
-      <c r="F149" s="8">
-        <v>18041.106909090908</v>
-      </c>
-      <c r="G149" t="s">
-        <v>290</v>
+        <v>0.70389999999999997</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>57</v>
+        <v>240</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>63</v>
+        <v>241</v>
       </c>
       <c r="D150" s="6">
-        <v>14900</v>
+        <v>29000</v>
       </c>
       <c r="E150" s="4">
-        <v>0.59489999999999998</v>
+        <v>0.70389999999999997</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A151" s="2" t="s">
-        <v>225</v>
+      <c r="A151" s="2">
+        <v>9122381432</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>257</v>
+        <v>308</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="D151" s="6"/>
-      <c r="E151" s="4"/>
+        <v>309</v>
+      </c>
+      <c r="D151" s="6">
+        <v>39000</v>
+      </c>
+      <c r="E151" s="4">
+        <v>0.70199999999999996</v>
+      </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>259</v>
+        <v>203</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C152" s="3"/>
-      <c r="D152" s="7"/>
+        <v>242</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D152" s="6">
+        <v>39000</v>
+      </c>
+      <c r="E152" s="4">
+        <v>0.70199999999999996</v>
+      </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A153" s="2" t="s">
-        <v>261</v>
+      <c r="A153" s="2">
+        <v>9122381432</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C153" s="3"/>
-      <c r="D153" s="7"/>
+        <v>308</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D153" s="6">
+        <v>39000</v>
+      </c>
+      <c r="E153" s="4">
+        <v>0.70199999999999996</v>
+      </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>263</v>
+        <v>203</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>138</v>
+        <v>245</v>
       </c>
       <c r="D154" s="6">
-        <v>32900</v>
+        <v>56900</v>
       </c>
       <c r="E154" s="4">
-        <v>0.37059999999999998</v>
-      </c>
-      <c r="F154" s="8">
-        <v>9447.5520909090919</v>
-      </c>
-      <c r="G154" t="s">
-        <v>290</v>
+        <v>0.68469999999999998</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>263</v>
+        <v>229</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="D155" s="6">
-        <v>32900</v>
+        <v>29000</v>
       </c>
       <c r="E155" s="4">
-        <v>0.37059999999999998</v>
-      </c>
-      <c r="F155" s="8">
-        <v>9447.5520909090919</v>
+        <v>0.70389999999999997</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>263</v>
+        <v>206</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="D156" s="6">
-        <v>5000</v>
+        <v>56900</v>
       </c>
       <c r="E156" s="4">
-        <v>0.71440000000000003</v>
+        <v>0.68469999999999998</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A157" s="2" t="s">
-        <v>263</v>
+      <c r="A157" s="2">
+        <v>9122381432</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>268</v>
+        <v>60</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>269</v>
+        <v>305</v>
       </c>
       <c r="D157" s="6">
-        <v>9000</v>
+        <v>56900</v>
       </c>
       <c r="E157" s="4">
-        <v>0.72409999999999997</v>
+        <v>0.68469999999999998</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>263</v>
+        <v>206</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>270</v>
+        <v>51</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>271</v>
+        <v>52</v>
       </c>
       <c r="D158" s="6">
-        <v>13000</v>
+        <v>14900</v>
       </c>
       <c r="E158" s="4">
-        <v>0.72789999999999999</v>
+        <v>0.76570000000000005</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
-        <v>272</v>
+        <v>206</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C159" s="3"/>
-      <c r="D159" s="7">
-        <v>29800</v>
-      </c>
-      <c r="E159" s="4">
-        <v>0.3921</v>
-      </c>
-      <c r="F159" s="8">
-        <v>8934.2569090909092</v>
-      </c>
-      <c r="G159" t="s">
-        <v>290</v>
+        <v>248</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D159" s="6">
+        <v>29000</v>
+      </c>
+      <c r="E159" s="10">
+        <v>0.70389999999999997</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
-        <v>274</v>
+        <v>206</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>275</v>
+        <v>53</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>276</v>
+        <v>54</v>
       </c>
       <c r="D160" s="6">
-        <v>5000</v>
-      </c>
-      <c r="E160" s="4">
-        <v>0.71440000000000003</v>
+        <v>56900</v>
+      </c>
+      <c r="E160" s="10">
+        <v>0.68469999999999998</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
-        <v>277</v>
+        <v>209</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C161" s="3"/>
-      <c r="D161" s="7">
-        <v>14800</v>
-      </c>
-      <c r="E161" s="4">
-        <v>0.57399999999999995</v>
-      </c>
-      <c r="F161" s="8">
-        <v>6450.570545454545</v>
-      </c>
-      <c r="G161" t="s">
-        <v>290</v>
+        <v>240</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D161" s="6">
+        <v>29000</v>
+      </c>
+      <c r="E161" s="10">
+        <v>0.70389999999999997</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
-        <v>279</v>
+        <v>229</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C162" s="3"/>
+        <v>240</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D162" s="6">
+        <v>29000</v>
+      </c>
+      <c r="E162" s="10">
+        <v>0.70389999999999997</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A163" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D163" s="6">
+        <v>14900</v>
+      </c>
+      <c r="E163" s="4">
+        <v>0.76570000000000005</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A164" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D164" s="6">
+        <v>14900</v>
+      </c>
+      <c r="E164" s="4">
+        <v>0.76570000000000005</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A165" s="2">
+        <v>9489940560</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D165" s="6">
+        <v>14900</v>
+      </c>
+      <c r="E165" s="4">
+        <v>0.59489999999999998</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A166" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D166" s="6">
+        <v>84800</v>
+      </c>
+      <c r="E166" s="4">
+        <v>0.57169999999999999</v>
+      </c>
+      <c r="F166" s="8">
+        <v>18041.106909090908</v>
+      </c>
+      <c r="G166" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A167" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D167" s="6">
+        <v>14900</v>
+      </c>
+      <c r="E167" s="4">
+        <v>0.76570000000000005</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A168" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D168" s="6"/>
+      <c r="E168" s="4"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A169" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C169" s="3"/>
+      <c r="D169" s="7"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A170" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C170" s="3"/>
+      <c r="D170" s="7">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A171" s="2">
+        <v>11974813293</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D171" s="7">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A172" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D172" s="6">
+        <v>32900</v>
+      </c>
+      <c r="E172" s="4">
+        <v>0.42220000000000002</v>
+      </c>
+      <c r="F172" s="8">
+        <v>9447.5520909090919</v>
+      </c>
+      <c r="G172" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A173" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D173" s="6">
+        <v>32900</v>
+      </c>
+      <c r="E173" s="4">
+        <v>0.42220000000000002</v>
+      </c>
+      <c r="F173" s="8">
+        <v>9447.5520909090919</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A174" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D174" s="6">
+        <v>5000</v>
+      </c>
+      <c r="E174" s="4">
+        <v>0.71440000000000003</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A175" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D175" s="6">
+        <v>9000</v>
+      </c>
+      <c r="E175" s="4">
+        <v>0.72409999999999997</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A176" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D176" s="6">
+        <v>13000</v>
+      </c>
+      <c r="E176" s="4">
+        <v>0.72789999999999999</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A177" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C177" s="3"/>
+      <c r="D177" s="7">
+        <v>29800</v>
+      </c>
+      <c r="E177" s="4">
+        <v>0.3921</v>
+      </c>
+      <c r="F177" s="8">
+        <v>8934.2569090909092</v>
+      </c>
+      <c r="G177" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A178" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D178" s="6">
+        <v>5000</v>
+      </c>
+      <c r="E178" s="4">
+        <v>0.71440000000000003</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A179" s="2">
+        <v>12300725816</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D179" s="6">
+        <v>24800</v>
+      </c>
+      <c r="E179" s="4">
+        <v>0.54149999999999998</v>
+      </c>
+      <c r="F179" s="8">
+        <v>8106.3614545454548</v>
+      </c>
+      <c r="G179" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A180" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C180" s="3"/>
+      <c r="D180" s="7">
+        <v>14800</v>
+      </c>
+      <c r="E180" s="4">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="F180" s="8">
+        <v>6450.570545454545</v>
+      </c>
+      <c r="G180" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A181" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C181" s="3"/>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A182" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D182" s="8">
+        <v>21900</v>
+      </c>
+      <c r="E182" s="4">
+        <v>0.54620000000000002</v>
+      </c>
+      <c r="F182" s="8">
+        <v>7626.1820909090911</v>
+      </c>
+      <c r="G182" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A183" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D183" s="8">
+        <v>29800</v>
+      </c>
+      <c r="E183" s="4">
+        <v>0.50049999999999994</v>
+      </c>
+      <c r="F183" s="8">
+        <v>8934.2569090909092</v>
+      </c>
+      <c r="G183" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A184" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D184" s="7">
+        <v>4900</v>
+      </c>
+      <c r="E184" s="4">
+        <v>0.54220000000000002</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>12281440901</v>
+      </c>
+      <c r="B185" t="s">
+        <v>320</v>
+      </c>
+      <c r="C185" t="s">
+        <v>134</v>
+      </c>
+      <c r="D185" s="8">
+        <v>19900</v>
+      </c>
+      <c r="E185" s="4">
+        <v>0.54790000000000005</v>
+      </c>
+      <c r="F185" s="8">
+        <v>7295.0239089999995</v>
+      </c>
+      <c r="G185" t="s">
+        <v>288</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
